--- a/CS/SpreadsheetControl_WPF_API_Part02/Documents/SalesReport.xlsx
+++ b/CS/SpreadsheetControl_WPF_API_Part02/Documents/SalesReport.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\winforms-spreadsheetcontrol-api-part-2\CS\SpreadsheetControl_API_Part02\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197A0914-D47B-4E5A-A3AC-B1D2B6E0C86C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,20 @@
     <sheet name="Sales Analysis" sheetId="3" state="hidden" r:id="rId3"/>
     <sheet name="Grouping" sheetId="4" state="hidden" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -94,11 +113,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,8 +183,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,6 +275,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -252,42 +313,52 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Custom Style" xfId="1"/>
-    <cellStyle name="Header" xfId="2"/>
+    <cellStyle name="Custom Style" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Header" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3"/>
-    <cellStyle name="Normal 3" xfId="4"/>
-    <cellStyle name="Title 2" xfId="5"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Title 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -553,36 +624,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.73046875" customWidth="1"/>
+    <col min="2" max="2" width="10.86328125" customWidth="1"/>
+    <col min="3" max="3" width="27.73046875" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:5" ht="14.65" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -596,295 +669,295 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" ht="14.65" x14ac:dyDescent="0.45">
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="20">
         <v>6750</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="12">
         <v>42018</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" ht="14.65" x14ac:dyDescent="0.45">
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="19">
         <v>8200</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <v>42170</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" ht="14.65" x14ac:dyDescent="0.45">
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="20">
         <v>7500</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <v>42141</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" ht="14.65" x14ac:dyDescent="0.45">
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="21">
         <v>4500</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="12">
         <v>42024</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" ht="14.65" x14ac:dyDescent="0.45">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="19">
         <v>9100</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="12">
         <v>42081</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" ht="14.65" x14ac:dyDescent="0.45">
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="18">
         <v>13500</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="12">
         <v>42226</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" ht="14.65" x14ac:dyDescent="0.45">
       <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="21">
         <v>3550</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="12">
         <v>42043</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" ht="14.65" x14ac:dyDescent="0.45">
       <c r="B10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="21">
         <v>1250</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" ht="14.65" x14ac:dyDescent="0.45">
       <c r="B11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="21">
         <v>2100</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="12">
         <v>42082</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" ht="14.65" x14ac:dyDescent="0.45">
       <c r="B12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="21">
         <v>4250</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="12">
         <v>42146</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" ht="14.65" x14ac:dyDescent="0.45">
       <c r="B13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="21">
         <v>5200</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="12">
         <v>42169</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" ht="14.65" x14ac:dyDescent="0.45">
       <c r="B14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="21">
         <v>3800</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="12">
         <v>42108</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" ht="14.65" x14ac:dyDescent="0.45">
       <c r="B15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="21">
         <v>5500</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" ht="14.65" x14ac:dyDescent="0.45">
       <c r="B16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="18">
         <v>12500</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="12">
         <v>42262</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" ht="14.65" x14ac:dyDescent="0.45">
       <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="20">
         <v>6500</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="12">
         <v>41743</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" ht="14.65" x14ac:dyDescent="0.45">
       <c r="B18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="20">
         <v>6250</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="12">
         <v>41653</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" ht="14.65" x14ac:dyDescent="0.45">
       <c r="B19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="18">
         <v>11800</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="12">
         <v>41804</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" ht="14.65" x14ac:dyDescent="0.45">
       <c r="B20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="19">
         <v>8600</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="12">
         <v>41743</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" ht="14.65" x14ac:dyDescent="0.45">
       <c r="B21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="21">
         <v>5325</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="12">
         <v>41653</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" ht="14.65" x14ac:dyDescent="0.45">
       <c r="B22" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="3"/>
-      <c r="D22" s="4">
+      <c r="D22" s="19">
         <v>9600</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="12">
         <v>41804</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" ht="14.65" x14ac:dyDescent="0.45">
       <c r="B23" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="20">
         <v>6580</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="12">
         <v>41743</v>
       </c>
     </row>
@@ -894,304 +967,304 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.1328125" customWidth="1"/>
+    <col min="2" max="2" width="19.73046875" customWidth="1"/>
+    <col min="3" max="3" width="14.73046875" customWidth="1"/>
+    <col min="4" max="4" width="12.59765625" customWidth="1"/>
+    <col min="5" max="5" width="13.265625" customWidth="1"/>
+    <col min="6" max="6" width="11.3984375" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+    <row r="1" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>2970</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>7590</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>8250</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="7">
         <v>10230</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <f>SUM(C3:F3)</f>
         <v>29040</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>4800</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>11200</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>9600</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <v>4800</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <f>SUM(C4:F4)</f>
         <v>30400</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>4025</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>1050</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>2800</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <v>2275</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <f>SUM(C5:F5)</f>
         <v>10150</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>7500</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>3000</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>9750</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <v>8250</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <f>SUM(C6:F6)</f>
         <v>28500</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <f>SUBTOTAL(9,C3:C6)</f>
         <v>19295</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <f>SUBTOTAL(9,D3:D6)</f>
         <v>22840</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <f>SUBTOTAL(9,E3:E6)</f>
         <v>30400</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <f>SUBTOTAL(9,F3:F6)</f>
         <v>25555</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
         <f>SUBTOTAL(9,G3:G6)</f>
         <v>98090</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>9570</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>11550</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <v>12540</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="7">
         <v>5280</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <f>SUM(C9:F9)</f>
         <v>38940</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>20800</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>17600</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <v>20800</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <v>6400</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="8">
         <f>SUM(C10:F10)</f>
         <v>65600</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>5425</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>5075</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>5600</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <v>5425</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="8">
         <f>SUM(C11:F11)</f>
         <v>21525</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>9750</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>12000</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <v>15000</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <v>13500</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="8">
         <f>SUM(C12:F12)</f>
         <v>50250</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <f>SUBTOTAL(9,C9:C12)</f>
         <v>45545</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <f>SUBTOTAL(9,D9:D12)</f>
         <v>46225</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="8">
         <f t="shared" ref="E13:G13" si="0">SUBTOTAL(9,E9:E12)</f>
         <v>53940</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <f t="shared" si="0"/>
         <v>30605</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="8">
         <f t="shared" si="0"/>
         <v>176315</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="11" t="s">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B14" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="11">
         <f>SUBTOTAL(9,C2:C13)</f>
         <v>64840</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="11">
         <f>SUBTOTAL(9,D2:D13)</f>
         <v>69065</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="11">
         <f t="shared" ref="E14:G14" si="1">SUBTOTAL(9,E2:E13)</f>
         <v>84340</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="11">
         <f t="shared" si="1"/>
         <v>56160</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="11">
         <f t="shared" si="1"/>
         <v>274405</v>
       </c>
@@ -1202,304 +1275,304 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1" outlineLevel="1"/>
+    <col min="1" max="1" width="3.1328125" customWidth="1"/>
+    <col min="2" max="2" width="17.73046875" customWidth="1"/>
+    <col min="3" max="3" width="15.1328125" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="14.3984375" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="12.86328125" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="15" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+    <row r="1" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="2:7" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+    <row r="3" spans="2:7" hidden="1" outlineLevel="2" x14ac:dyDescent="0.45">
+      <c r="B3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>2970</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>7590</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>8250</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="7">
         <v>10230</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <f>SUM(C3:F3)</f>
         <v>29040</v>
       </c>
     </row>
-    <row r="4" spans="2:7" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
+    <row r="4" spans="2:7" hidden="1" outlineLevel="2" x14ac:dyDescent="0.45">
+      <c r="B4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>4800</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>11200</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>9600</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <v>4800</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <f>SUM(C4:F4)</f>
         <v>30400</v>
       </c>
     </row>
-    <row r="5" spans="2:7" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
+    <row r="5" spans="2:7" hidden="1" outlineLevel="2" x14ac:dyDescent="0.45">
+      <c r="B5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>4025</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>1050</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>2800</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <v>2275</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <f>SUM(C5:F5)</f>
         <v>10150</v>
       </c>
     </row>
-    <row r="6" spans="2:7" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
+    <row r="6" spans="2:7" hidden="1" outlineLevel="2" x14ac:dyDescent="0.45">
+      <c r="B6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>7500</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>3000</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>9750</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <v>8250</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <f>SUM(C6:F6)</f>
         <v>28500</v>
       </c>
     </row>
-    <row r="7" spans="2:7" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
+    <row r="7" spans="2:7" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <f>SUBTOTAL(9,C3:C6)</f>
         <v>19295</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <f>SUBTOTAL(9,D3:D6)</f>
         <v>22840</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <f>SUBTOTAL(9,E3:E6)</f>
         <v>30400</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <f>SUBTOTAL(9,F3:F6)</f>
         <v>25555</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
         <f>SUBTOTAL(9,G3:G6)</f>
         <v>98090</v>
       </c>
     </row>
-    <row r="8" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
+    <row r="8" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:7" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
+    <row r="9" spans="2:7" outlineLevel="2" x14ac:dyDescent="0.45">
+      <c r="B9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>9570</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>11550</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <v>12540</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="7">
         <v>5280</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <f>SUM(C9:F9)</f>
         <v>38940</v>
       </c>
     </row>
-    <row r="10" spans="2:7" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
+    <row r="10" spans="2:7" outlineLevel="2" x14ac:dyDescent="0.45">
+      <c r="B10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>20800</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>17600</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <v>20800</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <v>6400</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="8">
         <f>SUM(C10:F10)</f>
         <v>65600</v>
       </c>
     </row>
-    <row r="11" spans="2:7" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
+    <row r="11" spans="2:7" outlineLevel="2" x14ac:dyDescent="0.45">
+      <c r="B11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>5425</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>5075</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>5600</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <v>5425</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="8">
         <f>SUM(C11:F11)</f>
         <v>21525</v>
       </c>
     </row>
-    <row r="12" spans="2:7" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
+    <row r="12" spans="2:7" outlineLevel="2" x14ac:dyDescent="0.45">
+      <c r="B12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>9750</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>12000</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <v>15000</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <v>13500</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="8">
         <f>SUM(C12:F12)</f>
         <v>50250</v>
       </c>
     </row>
-    <row r="13" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
+    <row r="13" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <f>SUBTOTAL(9,C9:C12)</f>
         <v>45545</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <f>SUBTOTAL(9,D9:D12)</f>
         <v>46225</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="8">
         <f t="shared" ref="E13:G13" si="0">SUBTOTAL(9,E9:E12)</f>
         <v>53940</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <f t="shared" si="0"/>
         <v>30605</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="8">
         <f t="shared" si="0"/>
         <v>176315</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="11" t="s">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B14" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="11">
         <f>SUBTOTAL(9,C2:C13)</f>
         <v>64840</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="11">
         <f>SUBTOTAL(9,D2:D13)</f>
         <v>69065</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="11">
         <f t="shared" ref="E14:G14" si="1">SUBTOTAL(9,E2:E13)</f>
         <v>84340</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="11">
         <f t="shared" si="1"/>
         <v>56160</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="11">
         <f t="shared" si="1"/>
         <v>274405</v>
       </c>
